--- a/SummersoftTest/target/classes/excel/OperationManagerCase.xlsx
+++ b/SummersoftTest/target/classes/excel/OperationManagerCase.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350" activeTab="1"/>
+    <workbookView windowWidth="23895" windowHeight="9930" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="region" sheetId="1" r:id="rId1"/>
     <sheet name="vehicle" sheetId="2" r:id="rId2"/>
+    <sheet name="driver" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A35:E51"/>
+  <oleSize ref="A61:E77"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304">
   <si>
     <t>测试用例序号</t>
   </si>
@@ -658,6 +659,276 @@
   </si>
   <si>
     <t>certifyDateB</t>
+  </si>
+  <si>
+    <t>输入身分证</t>
+  </si>
+  <si>
+    <t>头像上传</t>
+  </si>
+  <si>
+    <t>D:\picture\tt.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  选择性别</t>
+  </si>
+  <si>
+    <t>女</t>
+  </si>
+  <si>
+    <t>输入联系地址</t>
+  </si>
+  <si>
+    <t>上传身份证正面</t>
+  </si>
+  <si>
+    <t>D:\picture\driver\shengfenzheng.jpg</t>
+  </si>
+  <si>
+    <t>上传身份证背面</t>
+  </si>
+  <si>
+    <t>D:\picture\driver\shengfenzhengfan.jpg</t>
+  </si>
+  <si>
+    <t>上传手持身份证</t>
+  </si>
+  <si>
+    <t>D:\picture\driver\shouchi.jpg</t>
+  </si>
+  <si>
+    <t>输入分组信息</t>
+  </si>
+  <si>
+    <t>输入驾驶证号</t>
+  </si>
+  <si>
+    <t>上传驾驶证正面</t>
+  </si>
+  <si>
+    <t>D:\picture\driver\jiazhao.jpg</t>
+  </si>
+  <si>
+    <t>上传驾驶证反面</t>
+  </si>
+  <si>
+    <t>D:\picture\driver\jiazhaofan.jpg</t>
+  </si>
+  <si>
+    <t>上传驾驶证pdf</t>
+  </si>
+  <si>
+    <t>D:\picture\driver\13860492178_jiashizheng.pdf</t>
+  </si>
+  <si>
+    <t>选择准驾车型</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>选择初次领证日期</t>
+  </si>
+  <si>
+    <t>选择驾驶证有效期起</t>
+  </si>
+  <si>
+    <t>选择驾驶证有效期止</t>
+  </si>
+  <si>
+    <t>输入交通违章次数</t>
+  </si>
+  <si>
+    <t>输入交通事故次数</t>
+  </si>
+  <si>
+    <t>输入网络资格证号</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 输入发证机构</t>
+  </si>
+  <si>
+    <t>选择发证日期</t>
+  </si>
+  <si>
+    <t>选择有效期起</t>
+  </si>
+  <si>
+    <t>选择有效期止</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 选择服务类型</t>
+  </si>
+  <si>
+    <t>输入签署公司</t>
+  </si>
+  <si>
+    <t>茶语出行公司</t>
+  </si>
+  <si>
+    <t>选择合同签订日期</t>
+  </si>
+  <si>
+    <t>选择合同有效期起</t>
+  </si>
+  <si>
+    <t>选择合同有效期止</t>
+  </si>
+  <si>
+    <t>上传合同扫描</t>
+  </si>
+  <si>
+    <t>D:\picture\driver\13860492178_hetong.pdf</t>
+  </si>
+  <si>
+    <t>选择合同类型</t>
+  </si>
+  <si>
+    <t>合同</t>
+  </si>
+  <si>
+    <t>选择培训类型</t>
+  </si>
+  <si>
+    <t>日常</t>
+  </si>
+  <si>
+    <t>输入培训课程名称</t>
+  </si>
+  <si>
+    <t>科目一</t>
+  </si>
+  <si>
+    <t>选择培训课程日期</t>
+  </si>
+  <si>
+    <t>选择培训开始时间</t>
+  </si>
+  <si>
+    <t>选择培训结束时间</t>
+  </si>
+  <si>
+    <t>输入培训时长</t>
+  </si>
+  <si>
+    <t>输入户名</t>
+  </si>
+  <si>
+    <t>林婷</t>
+  </si>
+  <si>
+    <t>输入账号</t>
+  </si>
+  <si>
+    <t>6236 6819 3000 8264 739</t>
+  </si>
+  <si>
+    <t>输入银行</t>
+  </si>
+  <si>
+    <t>建设银行</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 输入银行地址</t>
+  </si>
+  <si>
+    <t>厦门市软件园二期</t>
+  </si>
+  <si>
+    <t>上传银行照片</t>
+  </si>
+  <si>
+    <t>D:\picture\driver\bankcard.jpg</t>
+  </si>
+  <si>
+    <t>TestStep_58</t>
+  </si>
+  <si>
+    <t>上传体检报告</t>
+  </si>
+  <si>
+    <t>D:\picture\driver\13860492178_tijianbaogao.pdf</t>
+  </si>
+  <si>
+    <t>TestStep_59</t>
+  </si>
+  <si>
+    <t>选择民族</t>
+  </si>
+  <si>
+    <t>汉族</t>
+  </si>
+  <si>
+    <t>TestStep_60</t>
+  </si>
+  <si>
+    <t>选择婚姻状况</t>
+  </si>
+  <si>
+    <t>未婚</t>
+  </si>
+  <si>
+    <t>TestStep_61</t>
+  </si>
+  <si>
+    <t>选择外语能力</t>
+  </si>
+  <si>
+    <t>精通</t>
+  </si>
+  <si>
+    <t>TestStep_62</t>
+  </si>
+  <si>
+    <t>选择学历</t>
+  </si>
+  <si>
+    <t>研究生</t>
+  </si>
+  <si>
+    <t>TestStep_63</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 输入户口登记机关</t>
+  </si>
+  <si>
+    <t>厦门市警察局</t>
+  </si>
+  <si>
+    <t>TestStep_64</t>
+  </si>
+  <si>
+    <t>输入户口住址</t>
+  </si>
+  <si>
+    <t>泉州市</t>
+  </si>
+  <si>
+    <t>TestStep_65</t>
+  </si>
+  <si>
+    <t>输入紧急联系人</t>
+  </si>
+  <si>
+    <t>林夕</t>
+  </si>
+  <si>
+    <t>TestStep_66</t>
+  </si>
+  <si>
+    <t>输入联系电话</t>
+  </si>
+  <si>
+    <t>13806005723</t>
+  </si>
+  <si>
+    <t>TestStep_67</t>
+  </si>
+  <si>
+    <t>输入地址</t>
+  </si>
+  <si>
+    <t>厦门市莲前</t>
   </si>
 </sst>
 </file>
@@ -671,7 +942,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,16 +951,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF808080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,9 +992,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,14 +1007,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -741,16 +1014,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -764,9 +1030,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,6 +1060,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -802,15 +1083,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -818,7 +1093,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,7 +1116,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,25 +1140,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,25 +1158,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,13 +1194,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -965,55 +1248,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,17 +1310,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,16 +1329,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1083,6 +1360,45 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1091,39 +1407,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1132,10 +1415,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1144,16 +1427,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1162,119 +1445,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1290,10 +1573,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,7 +1910,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1672,7 +1964,7 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1825,8 +2117,8 @@
   <sheetPr/>
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2465,7 +2757,7 @@
       <c r="D39" t="s">
         <v>148</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="7">
         <v>43200</v>
       </c>
     </row>
@@ -2482,7 +2774,7 @@
       <c r="D40" t="s">
         <v>151</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="7">
         <v>43581</v>
       </c>
     </row>
@@ -2774,6 +3066,955 @@
       <c r="E57" s="4">
         <v>41322</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E86"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="4" width="31.75" customWidth="1"/>
+    <col min="5" max="5" width="52.0583333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>214</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" t="s">
+        <v>217</v>
+      </c>
+      <c r="E18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" t="s">
+        <v>219</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
+        <v>227</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>230</v>
+      </c>
+      <c r="E26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
+        <v>232</v>
+      </c>
+      <c r="E27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>234</v>
+      </c>
+      <c r="E28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" t="s">
+        <v>236</v>
+      </c>
+      <c r="E29" s="4">
+        <v>43250</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>237</v>
+      </c>
+      <c r="E30" s="4">
+        <v>43251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C31" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" s="4">
+        <v>43617</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s">
+        <v>239</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" t="s">
+        <v>240</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" t="s">
+        <v>241</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" t="s">
+        <v>242</v>
+      </c>
+      <c r="E35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" t="s">
+        <v>243</v>
+      </c>
+      <c r="E36" s="4">
+        <v>43251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C37" t="s">
+        <v>236</v>
+      </c>
+      <c r="E37" s="4">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C38" t="s">
+        <v>244</v>
+      </c>
+      <c r="E38" s="4">
+        <v>43253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" t="s">
+        <v>245</v>
+      </c>
+      <c r="E39" s="4">
+        <v>43254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" t="s">
+        <v>120</v>
+      </c>
+      <c r="E40" s="4">
+        <v>43255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>149</v>
+      </c>
+      <c r="C41" t="s">
+        <v>246</v>
+      </c>
+      <c r="E41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>152</v>
+      </c>
+      <c r="C42" t="s">
+        <v>247</v>
+      </c>
+      <c r="E42" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" t="s">
+        <v>249</v>
+      </c>
+      <c r="E43" s="4">
+        <v>43254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>160</v>
+      </c>
+      <c r="C44" t="s">
+        <v>250</v>
+      </c>
+      <c r="E44" s="4">
+        <v>43255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>164</v>
+      </c>
+      <c r="C45" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" s="4">
+        <v>43256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" t="s">
+        <v>252</v>
+      </c>
+      <c r="E46" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" t="s">
+        <v>254</v>
+      </c>
+      <c r="E47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>175</v>
+      </c>
+      <c r="C48" t="s">
+        <v>256</v>
+      </c>
+      <c r="E48" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" t="s">
+        <v>258</v>
+      </c>
+      <c r="E49" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>182</v>
+      </c>
+      <c r="C50" t="s">
+        <v>260</v>
+      </c>
+      <c r="E50" s="4">
+        <v>43255</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" t="s">
+        <v>185</v>
+      </c>
+      <c r="C51" t="s">
+        <v>261</v>
+      </c>
+      <c r="E51" s="4">
+        <v>43256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>189</v>
+      </c>
+      <c r="C52" t="s">
+        <v>262</v>
+      </c>
+      <c r="E52" s="4">
+        <v>43257</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" t="s">
+        <v>263</v>
+      </c>
+      <c r="E53">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>197</v>
+      </c>
+      <c r="C54" t="s">
+        <v>264</v>
+      </c>
+      <c r="E54" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>201</v>
+      </c>
+      <c r="C55" t="s">
+        <v>266</v>
+      </c>
+      <c r="E55" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" t="s">
+        <v>268</v>
+      </c>
+      <c r="E56" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>208</v>
+      </c>
+      <c r="C57" t="s">
+        <v>270</v>
+      </c>
+      <c r="E57" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" t="s">
+        <v>272</v>
+      </c>
+      <c r="E58" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>274</v>
+      </c>
+      <c r="C59" t="s">
+        <v>275</v>
+      </c>
+      <c r="E59" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>277</v>
+      </c>
+      <c r="C60" t="s">
+        <v>278</v>
+      </c>
+      <c r="E60" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>280</v>
+      </c>
+      <c r="C61" t="s">
+        <v>281</v>
+      </c>
+      <c r="E61" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>283</v>
+      </c>
+      <c r="C62" t="s">
+        <v>284</v>
+      </c>
+      <c r="E62" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>286</v>
+      </c>
+      <c r="C63" t="s">
+        <v>287</v>
+      </c>
+      <c r="E63" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>289</v>
+      </c>
+      <c r="C64" t="s">
+        <v>290</v>
+      </c>
+      <c r="E64" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>292</v>
+      </c>
+      <c r="C65" t="s">
+        <v>293</v>
+      </c>
+      <c r="E65" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>295</v>
+      </c>
+      <c r="C66" t="s">
+        <v>296</v>
+      </c>
+      <c r="E66" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>298</v>
+      </c>
+      <c r="C67" t="s">
+        <v>299</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>301</v>
+      </c>
+      <c r="C68" t="s">
+        <v>302</v>
+      </c>
+      <c r="E68" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="69" ht="14.25" spans="1:1">
+      <c r="A69" s="5"/>
+    </row>
+    <row r="70" ht="14.25" spans="1:1">
+      <c r="A70" s="6"/>
+    </row>
+    <row r="71" ht="14.25" spans="1:1">
+      <c r="A71" s="5"/>
+    </row>
+    <row r="72" ht="14.25" spans="1:1">
+      <c r="A72" s="6"/>
+    </row>
+    <row r="73" ht="14.25" spans="1:1">
+      <c r="A73" s="5"/>
+    </row>
+    <row r="74" ht="14.25" spans="1:1">
+      <c r="A74" s="6"/>
+    </row>
+    <row r="75" ht="14.25" spans="1:1">
+      <c r="A75" s="5"/>
+    </row>
+    <row r="76" ht="14.25" spans="1:1">
+      <c r="A76" s="6"/>
+    </row>
+    <row r="77" ht="14.25" spans="1:1">
+      <c r="A77" s="5"/>
+    </row>
+    <row r="78" ht="14.25" spans="1:1">
+      <c r="A78" s="6"/>
+    </row>
+    <row r="79" ht="14.25" spans="1:1">
+      <c r="A79" s="5"/>
+    </row>
+    <row r="80" ht="14.25" spans="1:1">
+      <c r="A80" s="6"/>
+    </row>
+    <row r="82" ht="14.25" spans="1:1">
+      <c r="A82" s="5"/>
+    </row>
+    <row r="83" ht="14.25" spans="1:1">
+      <c r="A83" s="6"/>
+    </row>
+    <row r="84" ht="14.25" spans="1:1">
+      <c r="A84" s="5"/>
+    </row>
+    <row r="85" ht="14.25" spans="1:1">
+      <c r="A85" s="6"/>
+    </row>
+    <row r="86" ht="14.25" spans="1:1">
+      <c r="A86" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/SummersoftTest/target/classes/excel/OperationManagerCase.xlsx
+++ b/SummersoftTest/target/classes/excel/OperationManagerCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="9930" activeTab="2"/>
+    <workbookView windowWidth="23895" windowHeight="9930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="region" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="driver" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A61:E77"/>
+  <oleSize ref="A46:E62"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306">
   <si>
     <t>测试用例序号</t>
   </si>
@@ -661,6 +661,15 @@
     <t>certifyDateB</t>
   </si>
   <si>
+    <t>TestStep_58</t>
+  </si>
+  <si>
+    <t>车辆行驶里程</t>
+  </si>
+  <si>
+    <t>vehicleKilometers</t>
+  </si>
+  <si>
     <t>输入身分证</t>
   </si>
   <si>
@@ -839,9 +848,6 @@
   </si>
   <si>
     <t>D:\picture\driver\bankcard.jpg</t>
-  </si>
-  <si>
-    <t>TestStep_58</t>
   </si>
   <si>
     <t>上传体检报告</t>
@@ -935,12 +941,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -964,31 +971,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1014,7 +1007,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1030,31 +1050,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1076,10 +1074,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1093,7 +1100,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1101,7 +1108,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1116,13 +1123,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1158,37 +1159,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,19 +1213,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,7 +1237,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1254,19 +1267,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,18 +1307,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1307,6 +1314,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1328,41 +1374,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1396,17 +1414,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1415,10 +1422,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1427,16 +1434,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1445,119 +1452,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1580,6 +1587,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
@@ -1964,7 +1974,7 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2115,10 +2125,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3067,6 +3077,23 @@
         <v>41322</v>
       </c>
     </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" t="s">
+        <v>215</v>
+      </c>
+      <c r="D58" t="s">
+        <v>216</v>
+      </c>
+      <c r="E58" s="8">
+        <v>1233</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -3078,8 +3105,8 @@
   <sheetPr/>
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3132,7 +3159,7 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>11</v>
@@ -3155,10 +3182,10 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3259,10 +3286,10 @@
         <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="E18" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3273,7 +3300,7 @@
         <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E19" t="s">
         <v>108</v>
@@ -3287,10 +3314,10 @@
         <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="E20" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3301,10 +3328,10 @@
         <v>75</v>
       </c>
       <c r="C21" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E21" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3315,10 +3342,10 @@
         <v>79</v>
       </c>
       <c r="C22" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E22" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3329,7 +3356,7 @@
         <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E23">
         <v>12</v>
@@ -3343,9 +3370,9 @@
         <v>87</v>
       </c>
       <c r="C24" t="s">
-        <v>227</v>
-      </c>
-      <c r="E24" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E24" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3357,10 +3384,10 @@
         <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E25" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3371,10 +3398,10 @@
         <v>95</v>
       </c>
       <c r="C26" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E26" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3385,10 +3412,10 @@
         <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E27" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3399,10 +3426,10 @@
         <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E28" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3413,7 +3440,7 @@
         <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E29" s="4">
         <v>43250</v>
@@ -3427,7 +3454,7 @@
         <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E30" s="4">
         <v>43251</v>
@@ -3441,7 +3468,7 @@
         <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E31" s="4">
         <v>43617</v>
@@ -3455,7 +3482,7 @@
         <v>116</v>
       </c>
       <c r="C32" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -3469,7 +3496,7 @@
         <v>119</v>
       </c>
       <c r="C33" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -3483,9 +3510,9 @@
         <v>122</v>
       </c>
       <c r="C34" t="s">
-        <v>241</v>
-      </c>
-      <c r="E34" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E34" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3497,7 +3524,7 @@
         <v>126</v>
       </c>
       <c r="C35" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E35" t="s">
         <v>108</v>
@@ -3511,7 +3538,7 @@
         <v>130</v>
       </c>
       <c r="C36" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E36" s="4">
         <v>43251</v>
@@ -3525,7 +3552,7 @@
         <v>134</v>
       </c>
       <c r="C37" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E37" s="4">
         <v>43252</v>
@@ -3539,7 +3566,7 @@
         <v>138</v>
       </c>
       <c r="C38" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E38" s="4">
         <v>43253</v>
@@ -3553,7 +3580,7 @@
         <v>142</v>
       </c>
       <c r="C39" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="E39" s="4">
         <v>43254</v>
@@ -3581,7 +3608,7 @@
         <v>149</v>
       </c>
       <c r="C41" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E41" t="s">
         <v>125</v>
@@ -3595,10 +3622,10 @@
         <v>152</v>
       </c>
       <c r="C42" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="E42" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3609,7 +3636,7 @@
         <v>156</v>
       </c>
       <c r="C43" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E43" s="4">
         <v>43254</v>
@@ -3623,7 +3650,7 @@
         <v>160</v>
       </c>
       <c r="C44" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E44" s="4">
         <v>43255</v>
@@ -3637,7 +3664,7 @@
         <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E45" s="4">
         <v>43256</v>
@@ -3651,10 +3678,10 @@
         <v>168</v>
       </c>
       <c r="C46" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E46" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3665,10 +3692,10 @@
         <v>172</v>
       </c>
       <c r="C47" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E47" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3679,10 +3706,10 @@
         <v>175</v>
       </c>
       <c r="C48" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="E48" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3693,10 +3720,10 @@
         <v>179</v>
       </c>
       <c r="C49" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E49" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3707,7 +3734,7 @@
         <v>182</v>
       </c>
       <c r="C50" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E50" s="4">
         <v>43255</v>
@@ -3721,7 +3748,7 @@
         <v>185</v>
       </c>
       <c r="C51" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E51" s="4">
         <v>43256</v>
@@ -3735,7 +3762,7 @@
         <v>189</v>
       </c>
       <c r="C52" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="E52" s="4">
         <v>43257</v>
@@ -3749,10 +3776,10 @@
         <v>193</v>
       </c>
       <c r="C53" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E53">
-        <v>123</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3763,10 +3790,10 @@
         <v>197</v>
       </c>
       <c r="C54" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E54" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3777,10 +3804,10 @@
         <v>201</v>
       </c>
       <c r="C55" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E55" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3791,10 +3818,10 @@
         <v>204</v>
       </c>
       <c r="C56" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="E56" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3805,10 +3832,10 @@
         <v>208</v>
       </c>
       <c r="C57" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E57" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3819,10 +3846,10 @@
         <v>211</v>
       </c>
       <c r="C58" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E58" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3830,13 +3857,13 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
       <c r="C59" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E59" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3844,13 +3871,13 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C60" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E60" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3858,13 +3885,13 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C61" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E61" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3872,13 +3899,13 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C62" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E62" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3886,13 +3913,13 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C63" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E63" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3900,13 +3927,13 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C64" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E64" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3914,13 +3941,13 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C65" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E65" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3928,13 +3955,13 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C66" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E66" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3942,13 +3969,13 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C67" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3956,13 +3983,13 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C68" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E68" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" ht="14.25" spans="1:1">

--- a/SummersoftTest/target/classes/excel/OperationManagerCase.xlsx
+++ b/SummersoftTest/target/classes/excel/OperationManagerCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="9930" activeTab="1"/>
+    <workbookView windowWidth="19380" windowHeight="10350" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="region" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="driver" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A46:E62"/>
+  <oleSize ref="A1:E17"/>
 </workbook>
 </file>
 
@@ -943,10 +943,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
@@ -971,14 +971,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -986,7 +994,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -997,6 +1013,14 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1014,29 +1038,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1044,6 +1048,22 @@
     <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1058,41 +1078,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1106,9 +1100,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,7 +1123,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1135,61 +1177,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1213,13 +1201,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1231,13 +1231,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,31 +1249,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1297,13 +1285,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,6 +1314,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1328,6 +1367,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1350,67 +1409,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1422,10 +1422,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1434,133 +1434,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2127,8 +2127,8 @@
   <sheetPr/>
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
